--- a/analysis/ExData/Questionnaire/CutData/AllQuestionnaireData_20220202.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/AllQuestionnaireData_20220202.xlsx
@@ -61,13 +61,13 @@
     <t>Yamashita</t>
   </si>
   <si>
-    <t>A</t>
+    <t>without feedback</t>
   </si>
   <si>
-    <t>B</t>
+    <t>partner velocity</t>
   </si>
   <si>
-    <t>C</t>
+    <t>robot velocity</t>
   </si>
   <si>
     <t>1</t>

--- a/analysis/ExData/Questionnaire/CutData/AllQuestionnaireData_20220202.xlsx
+++ b/analysis/ExData/Questionnaire/CutData/AllQuestionnaireData_20220202.xlsx
@@ -16,22 +16,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8106" uniqueCount="27">
   <si>
-    <t>participant</t>
+    <t>Participant</t>
   </si>
   <si>
-    <t>condition</t>
+    <t>Condition</t>
   </si>
   <si>
-    <t>cycle</t>
+    <t>Cycle</t>
   </si>
   <si>
-    <t>evaluation</t>
+    <t>Evaluation</t>
   </si>
   <si>
-    <t>number</t>
+    <t>Number</t>
   </si>
   <si>
-    <t>score</t>
+    <t>Score</t>
   </si>
   <si>
     <t>Ebina</t>
